--- a/PublicTools/econfigs/2_characters.xlsx
+++ b/PublicTools/econfigs/2_characters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/ws.localized/arpgfun/PublicTools/econfigs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C67EDD-A7FE-4D4F-892D-91D22A0E79D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551CAEE4-2DA0-7C4C-919F-2E26FAB6AEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="__Base" sheetId="1" r:id="rId1"/>
     <sheet name="CharacterData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28864,7 +28864,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -28950,7 +28950,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>10</v>

--- a/PublicTools/econfigs/2_characters.xlsx
+++ b/PublicTools/econfigs/2_characters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/ws.localized/arpgfun/PublicTools/econfigs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551CAEE4-2DA0-7C4C-919F-2E26FAB6AEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB5B502-B939-4343-8657-29FE806ADF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
   <si>
     <t>编号</t>
   </si>
@@ -438,9 +438,6 @@
     <t>300|1000</t>
   </si>
   <si>
-    <t>300|10000</t>
-  </si>
-  <si>
     <t>0|100</t>
   </si>
   <si>
@@ -459,6 +456,14 @@
   </si>
   <si>
     <t>传送点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|8|20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000|300|10000</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -28864,7 +28869,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -28911,7 +28916,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>71</v>
@@ -28989,7 +28994,7 @@
         <v>26</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>73</v>
@@ -29032,7 +29037,7 @@
         <v>1002112</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>75</v>
@@ -29071,7 +29076,7 @@
         <v>1002111</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>75</v>
@@ -29110,7 +29115,7 @@
         <v>1002111</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>75</v>
@@ -29149,7 +29154,7 @@
         <v>1001111</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>75</v>
@@ -29188,7 +29193,7 @@
         <v>1001111</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>75</v>
@@ -29227,10 +29232,10 @@
         <v>1001111</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
@@ -29264,15 +29269,15 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2">
         <v>900000</v>
@@ -29331,10 +29336,10 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
@@ -29367,10 +29372,10 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
@@ -29403,10 +29408,10 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
@@ -29439,10 +29444,10 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
@@ -29475,10 +29480,10 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
@@ -29511,10 +29516,10 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
@@ -29547,10 +29552,10 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
@@ -29583,10 +29588,10 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
@@ -29619,10 +29624,10 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
@@ -29655,10 +29660,10 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">

--- a/PublicTools/econfigs/2_characters.xlsx
+++ b/PublicTools/econfigs/2_characters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/ws.localized/arpgfun/PublicTools/econfigs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB5B502-B939-4343-8657-29FE806ADF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958834FB-6F22-1A45-8FBB-74A33A1EED2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,10 +399,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Characters/human_izard.prefab</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Characters/human_necromance.prefab</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -463,7 +459,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>10000|300|10000</t>
+    <t>Characters/human_wizard.prefab</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000|300|10000</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -28869,7 +28869,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -28916,13 +28916,13 @@
         <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N1" s="1"/>
     </row>
@@ -28994,13 +28994,13 @@
         <v>26</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3" s="18"/>
     </row>
@@ -29037,10 +29037,10 @@
         <v>1002112</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
@@ -29058,7 +29058,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
@@ -29076,10 +29076,10 @@
         <v>1002111</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
@@ -29097,7 +29097,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
@@ -29115,10 +29115,10 @@
         <v>1002111</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
@@ -29136,7 +29136,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>27</v>
@@ -29154,15 +29154,15 @@
         <v>1001111</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
@@ -29175,7 +29175,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>27</v>
@@ -29193,10 +29193,10 @@
         <v>1001111</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
@@ -29232,7 +29232,7 @@
         <v>1001111</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>83</v>
@@ -29269,15 +29269,15 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2">
         <v>900000</v>
@@ -29323,7 +29323,7 @@
         <v>54</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -29336,10 +29336,10 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
@@ -29359,7 +29359,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -29372,10 +29372,10 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
@@ -29395,7 +29395,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -29408,10 +29408,10 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
@@ -29431,7 +29431,7 @@
         <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -29444,10 +29444,10 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
@@ -29480,10 +29480,10 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
@@ -29503,7 +29503,7 @@
         <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -29516,10 +29516,10 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
@@ -29539,7 +29539,7 @@
         <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -29552,10 +29552,10 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
@@ -29575,7 +29575,7 @@
         <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -29588,10 +29588,10 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
@@ -29611,7 +29611,7 @@
         <v>62</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -29624,10 +29624,10 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
@@ -29660,10 +29660,10 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">

--- a/PublicTools/econfigs/2_characters.xlsx
+++ b/PublicTools/econfigs/2_characters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/ws.localized/arpgfun/PublicTools/econfigs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958834FB-6F22-1A45-8FBB-74A33A1EED2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4834D890-F7AD-0B4F-B057-AA7D90256F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t>编号</t>
   </si>
@@ -434,9 +434,6 @@
     <t>300|1000</t>
   </si>
   <si>
-    <t>0|100</t>
-  </si>
-  <si>
     <t>0|300</t>
   </si>
   <si>
@@ -463,7 +460,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1000|300|10000</t>
+    <t>1000|100|10000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000|0|100</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effects/Flames/LifeFlame.prefab</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -28869,7 +28874,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -28916,7 +28921,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>70</v>
@@ -28994,7 +28999,7 @@
         <v>26</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>72</v>
@@ -29037,7 +29042,7 @@
         <v>1002112</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>74</v>
@@ -29058,7 +29063,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
@@ -29076,7 +29081,7 @@
         <v>1002111</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>74</v>
@@ -29115,7 +29120,7 @@
         <v>1002111</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>74</v>
@@ -29154,7 +29159,7 @@
         <v>1001111</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>74</v>
@@ -29193,7 +29198,7 @@
         <v>1001111</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>74</v>
@@ -29232,10 +29237,10 @@
         <v>1001111</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
@@ -29253,13 +29258,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2">
         <v>50</v>
@@ -29269,15 +29274,15 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2">
         <v>900000</v>
@@ -29336,10 +29341,10 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
@@ -29372,10 +29377,10 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
@@ -29408,10 +29413,10 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
@@ -29444,10 +29449,10 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
@@ -29480,10 +29485,10 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
@@ -29516,10 +29521,10 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
@@ -29552,10 +29557,10 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
@@ -29588,10 +29593,10 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
@@ -29624,10 +29629,10 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
@@ -29660,10 +29665,10 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">

--- a/PublicTools/econfigs/2_characters.xlsx
+++ b/PublicTools/econfigs/2_characters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/ws.localized/arpgfun/PublicTools/econfigs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4834D890-F7AD-0B4F-B057-AA7D90256F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F567B61-6F3D-3640-870A-90DB991A92EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>编号</t>
   </si>
@@ -434,9 +434,6 @@
     <t>300|1000</t>
   </si>
   <si>
-    <t>0|300</t>
-  </si>
-  <si>
     <t>InitEquip</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -469,6 +466,14 @@
   </si>
   <si>
     <t>Effects/Flames/LifeFlame.prefab</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1500</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -28874,7 +28879,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -28921,7 +28926,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>70</v>
@@ -28999,7 +29004,7 @@
         <v>26</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>72</v>
@@ -29042,7 +29047,7 @@
         <v>1002112</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>74</v>
@@ -29063,7 +29068,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
@@ -29081,7 +29086,7 @@
         <v>1002111</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>74</v>
@@ -29120,7 +29125,7 @@
         <v>1002111</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>74</v>
@@ -29159,7 +29164,7 @@
         <v>1001111</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>74</v>
@@ -29198,7 +29203,7 @@
         <v>1001111</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>74</v>
@@ -29237,10 +29242,10 @@
         <v>1001111</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
@@ -29258,7 +29263,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>31</v>
@@ -29274,15 +29279,15 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2">
         <v>900000</v>
@@ -29341,10 +29346,10 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
@@ -29377,10 +29382,10 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
@@ -29413,10 +29418,10 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
@@ -29449,10 +29454,10 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
@@ -29485,10 +29490,10 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
@@ -29521,10 +29526,10 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
@@ -29557,10 +29562,10 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
@@ -29593,10 +29598,10 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
@@ -29629,10 +29634,10 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
@@ -29665,10 +29670,10 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">

--- a/PublicTools/econfigs/2_characters.xlsx
+++ b/PublicTools/econfigs/2_characters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/ws.localized/arpgfun/PublicTools/econfigs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F567B61-6F3D-3640-870A-90DB991A92EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB54FAF9-D14D-C048-9C2A-003993E42245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>0|1500</t>
+    <t>500|1500</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -28879,7 +28879,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>

--- a/PublicTools/econfigs/2_characters.xlsx
+++ b/PublicTools/econfigs/2_characters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/ws.localized/arpgfun/PublicTools/econfigs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB54FAF9-D14D-C048-9C2A-003993E42245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07601EE-E89E-E542-ADCC-BC4C91C41DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,11 +469,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>0|1000</t>
+    <t>500|1500</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>500|1500</t>
+    <t>200|1000</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -28879,7 +28879,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -29349,7 +29349,7 @@
         <v>77</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
@@ -29385,7 +29385,7 @@
         <v>77</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
@@ -29421,7 +29421,7 @@
         <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
@@ -29457,7 +29457,7 @@
         <v>77</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
@@ -29493,7 +29493,7 @@
         <v>77</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
@@ -29529,7 +29529,7 @@
         <v>77</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
@@ -29565,7 +29565,7 @@
         <v>77</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
@@ -29601,7 +29601,7 @@
         <v>77</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
@@ -29637,7 +29637,7 @@
         <v>77</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
@@ -29673,7 +29673,7 @@
         <v>77</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
